--- a/Data/zcb mean margin hedge.xlsx
+++ b/Data/zcb mean margin hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-26437.2659816803</v>
+        <v>2249.970872193743</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-24252.06957963412</v>
+        <v>2249.961674801726</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-23159.20666010814</v>
+        <v>2249.960402923292</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-21978.76396225346</v>
+        <v>2249.958149782847</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20911.40402436483</v>
+        <v>2249.956281905068</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-20422.54914934689</v>
+        <v>2249.959373664149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-19427.99893698241</v>
+        <v>2249.957994529974</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-18624.07782208574</v>
+        <v>2249.958141039052</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17902.21314771413</v>
+        <v>2249.958787934263</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-17175.23024237151</v>
+        <v>2249.959109590447</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16537.17348186754</v>
+        <v>2249.960241020119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15976.95863875507</v>
+        <v>2249.961889048955</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14998.20053139982</v>
+        <v>2249.958997390121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14570.05081117009</v>
+        <v>2249.961721279624</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13803.22468316087</v>
+        <v>2249.960413312876</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-13117.39969068452</v>
+        <v>2249.959687068524</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12446.32346094592</v>
+        <v>2249.958607642164</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-12010.52909158104</v>
+        <v>2249.960187726748</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-11417.69055832393</v>
+        <v>2249.959523582282</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-10928.3753526472</v>
+        <v>2249.959732397538</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10450.46233364964</v>
+        <v>2249.960047539178</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-10079.37230579535</v>
+        <v>2249.96200621455</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9313.093214351409</v>
+        <v>2249.957632928362</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9216.531849291296</v>
+        <v>2249.962936544757</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8677.932920952984</v>
+        <v>1977.967904174445</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8203.469557360262</v>
+        <v>1977.967139096512</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7850.540448827689</v>
+        <v>1977.968262031807</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7371.794614799878</v>
+        <v>1977.966844895154</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6930.801706562524</v>
+        <v>1977.966106266776</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6570.961788135036</v>
+        <v>1977.966257938938</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6265.200591888935</v>
+        <v>1977.967346614511</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5921.271656332155</v>
+        <v>1977.967419246885</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5637.426902617642</v>
+        <v>1977.968834779133</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5347.130976870435</v>
+        <v>1977.969821926936</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4892.005241875602</v>
+        <v>1977.967483286758</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34846.20287109627</v>
+        <v>1977.968466016175</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4483.652064826011</v>
+        <v>1705.730114898175</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4232.578442071125</v>
+        <v>1705.731662773341</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3843.808846094186</v>
+        <v>1705.730260488801</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3659.780767802325</v>
+        <v>1705.732997749427</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3257.259157443205</v>
+        <v>1705.731408496186</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2937.12652997253</v>
+        <v>1705.731014345173</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2629.124147481462</v>
+        <v>1705.730734551771</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2224.185799411121</v>
+        <v>1705.727594096592</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-2063.377838440199</v>
+        <v>1705.730701324064</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1821.45535865445</v>
+        <v>1705.731502511767</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1497.361820285669</v>
+        <v>1705.729208436351</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1265.307091593797</v>
+        <v>1705.729104246702</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1095.716957868805</v>
+        <v>1705.731144618388</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-903.7721238993031</v>
+        <v>1705.731653188663</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-675.8067287583071</v>
+        <v>1705.728995703837</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-574.9526118496874</v>
+        <v>1705.732217403968</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-369.5650363299457</v>
+        <v>1705.728212578499</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-277.4976156631598</v>
+        <v>1705.729723222738</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-220.2558025597743</v>
+        <v>1705.732606260941</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-89.07062182527382</v>
+        <v>1705.729646769268</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-5.090887711478035</v>
+        <v>1705.729577050232</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>99.47975191740953</v>
+        <v>1705.727703316726</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>157.2333085014107</v>
+        <v>1705.729476086813</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>292394.2623253691</v>
+        <v>1705.728675224425</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-921.4878664484775</v>
+        <v>734.617539682033</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-886.2205517839919</v>
+        <v>734.6209844602257</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-808.50551106303</v>
+        <v>734.6209728720341</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-722.9983982827808</v>
+        <v>734.6204352873178</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-655.5054874717374</v>
+        <v>734.6212947645053</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-559.6081649374131</v>
+        <v>734.6196280530511</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-508.8889184634029</v>
+        <v>734.6216781834451</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-434.6708949881622</v>
+        <v>734.6217387570255</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-336.4276136396193</v>
+        <v>734.6189223195776</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-262.6464206054794</v>
+        <v>734.6181697438594</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-213.8301774489636</v>
+        <v>734.6203353729876</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-155.0720030188733</v>
+        <v>734.6210802329573</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-84.91474893212053</v>
+        <v>734.6197277585815</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-16.48757851407328</v>
+        <v>734.6184753849345</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>23.53812973577402</v>
+        <v>734.6205106670003</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>80.78681216213714</v>
+        <v>734.6192403873425</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>133.0310692136863</v>
+        <v>734.6179440092042</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>183.7867630863242</v>
+        <v>734.6163537568241</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>187.140124362418</v>
+        <v>734.6225934470789</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>236.3038722313272</v>
+        <v>734.6202718741229</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>276.0622758216482</v>
+        <v>734.6192626757174</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>305.8119932930953</v>
+        <v>734.6198153418158</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>340.9181761713523</v>
+        <v>734.619029597519</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114674.3450821585</v>
+        <v>734.6197809654122</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-7.209679394696212</v>
+        <v>442.4767213346598</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>9.922391557901877</v>
+        <v>442.4793095960677</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>44.74895711346171</v>
+        <v>442.4776792818043</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>74.8128129170139</v>
+        <v>442.4765829784226</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>98.59473615626496</v>
+        <v>442.4765833722834</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>121.2515703867007</v>
+        <v>442.4765845741073</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>141.6832907053108</v>
+        <v>442.4768681764819</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>160.8810447689819</v>
+        <v>442.477725973136</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>183.2662191858177</v>
+        <v>442.4771397851874</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>204.7571307580854</v>
+        <v>442.4765390701468</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>218.4270762421748</v>
+        <v>442.4787133050068</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54066.40637702055</v>
+        <v>442.478914065957</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>137.7716862142878</v>
+        <v>262.4768931606143</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>150.5332805031859</v>
+        <v>262.4796782536395</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>177.6439728810196</v>
+        <v>262.4768565320128</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>198.9265943050832</v>
+        <v>262.4760013531839</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>211.0858860216127</v>
+        <v>262.4791152891236</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>231.6891209881625</v>
+        <v>262.4787082135532</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>250.8010273324467</v>
+        <v>262.4784171937109</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>267.5071603300397</v>
+        <v>262.4790233185959</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>286.8933880926562</v>
+        <v>262.4778621000104</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>301.2587742656466</v>
+        <v>262.4787191943198</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>318.3480805067212</v>
+        <v>262.4774042357722</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>329.881139655801</v>
+        <v>262.4784752319931</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>344.0083176746006</v>
+        <v>262.4769828075676</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>353.3037312781165</v>
+        <v>262.4775401366722</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>361.560140239897</v>
+        <v>262.4796649634019</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>369.1265559545817</v>
+        <v>262.4771469282102</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>373.4806443768154</v>
+        <v>262.4789535325643</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>376.6809912121416</v>
+        <v>262.4790258752939</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>378.4227124753729</v>
+        <v>262.4779603086508</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>379.0665796838844</v>
+        <v>262.4797305646728</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>379.263860976421</v>
+        <v>262.4768443604127</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>379.2760737768446</v>
+        <v>262.4776260535442</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>379.2669392639282</v>
+        <v>262.4759038165698</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127724.9167369154</v>
+        <v>262.4763574524397</v>
       </c>
     </row>
   </sheetData>
